--- a/SpreadSheet/Book1.xlsx
+++ b/SpreadSheet/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533569\Harshitha_Chetty_Ragava\44663\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533569\Harshitha_Chetty_Ragava\44663\Mvc\SpreadSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -964,7 +964,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
